--- a/color_comida_apaisado.xlsx
+++ b/color_comida_apaisado.xlsx
@@ -459,18 +459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -522,8 +522,11 @@
       <c r="Q1" s="4">
         <v>44065</v>
       </c>
+      <c r="R1" s="4">
+        <v>44066</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,8 +578,11 @@
       <c r="Q2" s="3">
         <v>1.7999999999999998</v>
       </c>
+      <c r="R2" s="3">
+        <v>1.7999999999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -626,8 +632,11 @@
       <c r="Q3" s="3">
         <v>0.3</v>
       </c>
+      <c r="R3" s="3">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -679,8 +688,11 @@
       <c r="Q4" s="3">
         <v>2.7250000000000001</v>
       </c>
+      <c r="R4" s="3">
+        <v>3.125</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -732,8 +744,11 @@
       <c r="Q5" s="3">
         <v>3.4250000000000003</v>
       </c>
+      <c r="R5" s="3">
+        <v>4.0750000000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -785,8 +800,11 @@
       <c r="Q6" s="3">
         <v>5.9999999999999991</v>
       </c>
+      <c r="R6" s="3">
+        <v>6.1499999999999995</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -836,8 +854,11 @@
       <c r="Q7" s="3">
         <v>1.6</v>
       </c>
+      <c r="R7" s="3">
+        <v>1.9000000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -889,8 +910,11 @@
       <c r="Q8" s="3">
         <v>6.4250000000000007</v>
       </c>
+      <c r="R8" s="3">
+        <v>6.4250000000000007</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -942,8 +966,11 @@
       <c r="Q9" s="3">
         <v>2.9250000000000003</v>
       </c>
+      <c r="R9" s="3">
+        <v>2.9250000000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -983,8 +1010,11 @@
       <c r="Q10" s="3">
         <v>0.5</v>
       </c>
+      <c r="R10" s="3">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1030,8 +1060,11 @@
       <c r="Q11" s="3">
         <v>1.55</v>
       </c>
+      <c r="R11" s="3">
+        <v>1.55</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1082,6 +1115,9 @@
       </c>
       <c r="Q12" s="3">
         <v>2.7499999999999996</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2.8499999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/color_comida_apaisado.xlsx
+++ b/color_comida_apaisado.xlsx
@@ -465,7 +465,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -633,7 +633,7 @@
         <v>0.3</v>
       </c>
       <c r="R3" s="3">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
         <v>2.7250000000000001</v>
       </c>
       <c r="R4" s="3">
-        <v>3.125</v>
+        <v>3.0750000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">

--- a/color_comida_apaisado.xlsx
+++ b/color_comida_apaisado.xlsx
@@ -465,7 +465,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -555,31 +555,31 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="J2" s="3">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K2" s="3">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L2" s="3">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="M2" s="3">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="N2" s="3">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="O2" s="3">
-        <v>1.7999999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="P2" s="3">
-        <v>1.7999999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" s="3">
-        <v>1.7999999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="R2" s="3">
-        <v>1.7999999999999998</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -591,49 +591,49 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="H3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="L3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="M3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="N3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="P3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="R3" s="3">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
         <v>2.7250000000000001</v>
       </c>
       <c r="R4" s="3">
-        <v>3.0750000000000002</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
         <v>3.4250000000000003</v>
       </c>
       <c r="R5" s="3">
-        <v>4.0750000000000002</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -813,49 +813,49 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F7" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="G7" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H7" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I7" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="J7" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="K7" s="3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="L7" s="3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="M7" s="3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N7" s="3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="O7" s="3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="P7" s="3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="Q7" s="3">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R7" s="3">
-        <v>1.9000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="R10" s="3">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1037,31 +1037,31 @@
         <v>0.7</v>
       </c>
       <c r="J11" s="3">
-        <v>1.35</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="K11" s="3">
-        <v>1.35</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="L11" s="3">
-        <v>1.55</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="M11" s="3">
-        <v>1.55</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="N11" s="3">
-        <v>1.55</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="O11" s="3">
-        <v>1.55</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="P11" s="3">
-        <v>1.55</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="Q11" s="3">
-        <v>1.55</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="R11" s="3">
-        <v>1.55</v>
+        <v>1.4999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>2.7499999999999996</v>
       </c>
       <c r="R12" s="3">
-        <v>2.8499999999999996</v>
+        <v>2.7499999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/color_comida_apaisado.xlsx
+++ b/color_comida_apaisado.xlsx
@@ -35,9 +35,6 @@
     <t>crema</t>
   </si>
   <si>
-    <t>marron</t>
-  </si>
-  <si>
     <t>naranja</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>rosa</t>
   </si>
   <si>
-    <t>salmon</t>
-  </si>
-  <si>
     <t>verde</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/diegotanona/files/gh-pages/imagenes/tomate.jpg</t>
+  </si>
+  <si>
+    <t>marrón</t>
+  </si>
+  <si>
+    <t>salmón</t>
   </si>
 </sst>
 </file>
@@ -465,17 +465,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="4">
         <v>44051</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3">
         <v>0.1</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>0.5</v>
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>0.1</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>0.4</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
@@ -860,10 +860,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>0.7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <v>0.1</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>0.1</v>
